--- a/static/uploads/train.xlsx
+++ b/static/uploads/train.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7E5EDC-F6EA-4027-8185-ED92B5550230}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D64B2-0703-4417-A2F5-42F5C9C5EC8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="12945" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表" sheetId="1" r:id="rId1"/>
@@ -40,102 +40,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,5,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y([重量,次数,组数])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z([重量,次数,组数])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W([重量,次数,组数])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P([重量,次数,组数])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q([重量,次数,组数])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R([重量,次数,组数])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3,5]</t>
+  </si>
+  <si>
+    <t>[2,3,6]</t>
+  </si>
+  <si>
+    <t>[2,3,7]</t>
+  </si>
+  <si>
+    <t>[2,3,8]</t>
+  </si>
+  <si>
+    <t>[2,3,9]</t>
+  </si>
+  <si>
+    <t>[3,4,6]</t>
+  </si>
+  <si>
+    <t>[3,4,7]</t>
+  </si>
+  <si>
+    <t>[3,4,8]</t>
+  </si>
+  <si>
+    <t>[3,4,9]</t>
+  </si>
+  <si>
+    <t>[3,4,10]</t>
+  </si>
+  <si>
+    <t>[4,5,7]</t>
+  </si>
+  <si>
+    <t>[4,5,8]</t>
+  </si>
+  <si>
+    <t>[4,5,9]</t>
+  </si>
+  <si>
+    <t>[4,5,10]</t>
+  </si>
+  <si>
+    <t>[4,5,11]</t>
+  </si>
+  <si>
+    <t>[2,3,10]</t>
+  </si>
+  <si>
+    <t>[3,4,11]</t>
+  </si>
+  <si>
+    <t>[4,5,12]</t>
+  </si>
+  <si>
     <t>X([重量,次数,组数])</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,3,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4,5,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y([重量,次数,组数])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z([重量,次数,组数])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W([重量,次数,组数])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P([重量,次数,组数])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q([重量,次数,组数])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R([重量,次数,组数])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,4,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,3,5]</t>
-  </si>
-  <si>
-    <t>[2,3,6]</t>
-  </si>
-  <si>
-    <t>[2,3,7]</t>
-  </si>
-  <si>
-    <t>[2,3,8]</t>
-  </si>
-  <si>
-    <t>[2,3,9]</t>
-  </si>
-  <si>
-    <t>[3,4,6]</t>
-  </si>
-  <si>
-    <t>[3,4,7]</t>
-  </si>
-  <si>
-    <t>[3,4,8]</t>
-  </si>
-  <si>
-    <t>[3,4,9]</t>
-  </si>
-  <si>
-    <t>[3,4,10]</t>
-  </si>
-  <si>
-    <t>[4,5,7]</t>
-  </si>
-  <si>
-    <t>[4,5,8]</t>
-  </si>
-  <si>
-    <t>[4,5,9]</t>
-  </si>
-  <si>
-    <t>[4,5,10]</t>
-  </si>
-  <si>
-    <t>[4,5,11]</t>
-  </si>
-  <si>
-    <t>[2,3,10]</t>
-  </si>
-  <si>
-    <t>[3,4,11]</t>
-  </si>
-  <si>
-    <t>[4,5,12]</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,25 +488,25 @@
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -527,25 +527,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -553,25 +553,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -579,25 +579,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -631,25 +631,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -657,25 +657,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
